--- a/results_svm_evaluation/svm_results_de_LDS_by_data_driven_pcc_10_15.xlsx
+++ b/results_svm_evaluation/svm_results_de_LDS_by_data_driven_pcc_10_15.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="selection_rate_0.25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="selection_rate_0.5" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.96666061125096</v>
+        <v>73.14821062465937</v>
       </c>
       <c r="C2" t="n">
-        <v>65.96666061125096</v>
+        <v>73.14821062465937</v>
       </c>
       <c r="D2" t="n">
-        <v>61.67452688957094</v>
+        <v>68.09593593161794</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.25090182441025</v>
+        <v>83.7524546060087</v>
       </c>
       <c r="C3" t="n">
-        <v>74.25090182441025</v>
+        <v>83.7524546060087</v>
       </c>
       <c r="D3" t="n">
-        <v>72.64996185398925</v>
+        <v>81.33596649508131</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.92085571674495</v>
+        <v>88.28908554572271</v>
       </c>
       <c r="C4" t="n">
-        <v>80.92085571674495</v>
+        <v>88.28908554572271</v>
       </c>
       <c r="D4" t="n">
-        <v>77.56079484328117</v>
+        <v>86.83672612114052</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68.67369094888365</v>
+        <v>82.12138513308938</v>
       </c>
       <c r="C5" t="n">
-        <v>68.67369094888365</v>
+        <v>82.12138513308938</v>
       </c>
       <c r="D5" t="n">
-        <v>62.90205869884041</v>
+        <v>79.53088855604028</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.13560670940061</v>
+        <v>71.540238237355</v>
       </c>
       <c r="C6" t="n">
-        <v>66.13560670940061</v>
+        <v>71.540238237355</v>
       </c>
       <c r="D6" t="n">
-        <v>61.46899636452681</v>
+        <v>65.61144541457944</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.33512400626304</v>
+        <v>89.74203929099733</v>
       </c>
       <c r="C7" t="n">
-        <v>80.33512400626304</v>
+        <v>89.74203929099733</v>
       </c>
       <c r="D7" t="n">
-        <v>77.47136956264667</v>
+        <v>89.33230537028363</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.80527513213782</v>
+        <v>86.47791070857015</v>
       </c>
       <c r="C8" t="n">
-        <v>69.80527513213782</v>
+        <v>86.47791070857015</v>
       </c>
       <c r="D8" t="n">
-        <v>68.10318190789818</v>
+        <v>84.79948288850298</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.08724123911107</v>
+        <v>77.64003148816167</v>
       </c>
       <c r="C9" t="n">
-        <v>75.08724123911107</v>
+        <v>77.64003148816167</v>
       </c>
       <c r="D9" t="n">
-        <v>74.12215208171662</v>
+        <v>75.54869078020712</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.97600325262329</v>
+        <v>65.05627211308055</v>
       </c>
       <c r="C10" t="n">
-        <v>55.97600325262329</v>
+        <v>65.05627211308055</v>
       </c>
       <c r="D10" t="n">
-        <v>51.37999178882874</v>
+        <v>62.23923872161779</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.10103893632298</v>
+        <v>88.15058953797178</v>
       </c>
       <c r="C11" t="n">
-        <v>80.10103893632298</v>
+        <v>88.15058953797178</v>
       </c>
       <c r="D11" t="n">
-        <v>77.81856831804349</v>
+        <v>85.8264834078573</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.47002136696685</v>
+        <v>68.02117665377729</v>
       </c>
       <c r="C12" t="n">
-        <v>64.47002136696685</v>
+        <v>68.02117665377729</v>
       </c>
       <c r="D12" t="n">
-        <v>62.43422286886397</v>
+        <v>62.85457244716999</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.33963096566579</v>
+        <v>61.41670775698751</v>
       </c>
       <c r="C13" t="n">
-        <v>71.33963096566579</v>
+        <v>61.41670775698751</v>
       </c>
       <c r="D13" t="n">
-        <v>70.84784782667589</v>
+        <v>60.11838447063067</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.7318488914264</v>
+        <v>95.20904160070589</v>
       </c>
       <c r="C14" t="n">
-        <v>91.7318488914264</v>
+        <v>95.20904160070589</v>
       </c>
       <c r="D14" t="n">
-        <v>91.70954531936727</v>
+        <v>95.24527444811324</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.66506630680196</v>
+        <v>90.896115018296</v>
       </c>
       <c r="C15" t="n">
-        <v>91.66506630680196</v>
+        <v>90.896115018296</v>
       </c>
       <c r="D15" t="n">
-        <v>90.64722226391288</v>
+        <v>88.54791010807446</v>
       </c>
     </row>
     <row r="16">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.76393106053398</v>
+        <v>81.43075055435889</v>
       </c>
       <c r="C17" t="n">
-        <v>75.76393106053398</v>
+        <v>81.43075055435889</v>
       </c>
       <c r="D17" t="n">
-        <v>73.38602937254414</v>
+        <v>79.06155367739444</v>
       </c>
     </row>
   </sheetData>

--- a/results_svm_evaluation/svm_results_de_LDS_by_data_driven_pcc_10_15.xlsx
+++ b/results_svm_evaluation/svm_results_de_LDS_by_data_driven_pcc_10_15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\results_svm_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineering\modeling_vce_dm\results_svm_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C2E70B-7301-428F-91FB-C90C146F7E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11669342-0BA9-421E-8439-CC672DEAA19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selection_rate_0.1" sheetId="4" r:id="rId1"/>
@@ -89,11 +89,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -105,7 +105,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -479,11 +479,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -511,7 +511,7 @@
         <v>51.493280165317692</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -525,7 +525,7 @@
         <v>66.892335940487442</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -539,7 +539,7 @@
         <v>64.452388432279278</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -553,7 +553,7 @@
         <v>66.679291192760388</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -567,7 +567,7 @@
         <v>55.085531140404917</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -581,7 +581,7 @@
         <v>66.490881745014462</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -595,7 +595,7 @@
         <v>43.28074999592463</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -609,7 +609,7 @@
         <v>48.231956904803042</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -623,7 +623,7 @@
         <v>27.372827220237859</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -637,7 +637,7 @@
         <v>74.311603891497867</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -651,7 +651,7 @@
         <v>53.275687112920899</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -665,7 +665,7 @@
         <v>58.444942015550097</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -679,7 +679,7 @@
         <v>93.416311522191762</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -693,7 +693,7 @@
         <v>83.423362437308128</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -707,7 +707,7 @@
         <v>99.765593586584046</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -733,9 +733,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -763,7 +763,7 @@
         <v>61.674526889570942</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -777,7 +777,7 @@
         <v>72.649961853989254</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -791,7 +791,7 @@
         <v>77.560794843281172</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -805,7 +805,7 @@
         <v>62.902058698840413</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -819,7 +819,7 @@
         <v>61.468996364526809</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -833,7 +833,7 @@
         <v>77.471369562646672</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -847,7 +847,7 @@
         <v>68.103181907898175</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -861,7 +861,7 @@
         <v>74.122152081716621</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -875,7 +875,7 @@
         <v>51.37999178882874</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -889,7 +889,7 @@
         <v>77.818568318043489</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -903,7 +903,7 @@
         <v>62.434222868863969</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -917,7 +917,7 @@
         <v>70.847847826675888</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -931,7 +931,7 @@
         <v>91.709545319367265</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -945,7 +945,7 @@
         <v>90.64722226391288</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -959,7 +959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -984,11 +984,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1016,7 +1018,7 @@
         <v>68.095935931617944</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1032,7 @@
         <v>81.335966495081308</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1046,7 @@
         <v>86.836726121140515</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>79.530888556040281</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1072,7 +1074,7 @@
         <v>65.611445414579435</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1086,7 +1088,7 @@
         <v>89.332305370283635</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1102,7 @@
         <v>84.799482888502979</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1114,7 +1116,7 @@
         <v>75.548690780207124</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1128,7 +1130,7 @@
         <v>62.239238721617788</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1142,7 +1144,7 @@
         <v>85.826483407857296</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1156,7 +1158,7 @@
         <v>62.854572447169993</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1170,7 +1172,7 @@
         <v>60.118384470630673</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1184,7 +1186,7 @@
         <v>95.245274448113236</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>88.547910108074461</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1212,7 +1214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1236,11 +1238,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1270,7 @@
         <v>73.928004334850328</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1282,7 +1284,7 @@
         <v>86.234678762023265</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +1298,7 @@
         <v>87.719464121969594</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1310,7 +1312,7 @@
         <v>81.774194725832587</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1326,7 @@
         <v>68.718721556875167</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1338,7 +1340,7 @@
         <v>89.79706405932447</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1352,7 +1354,7 @@
         <v>88.70258341530382</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1366,7 +1368,7 @@
         <v>78.258707543770626</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1380,7 +1382,7 @@
         <v>72.796765017440379</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1394,7 +1396,7 @@
         <v>83.840413089764255</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1408,7 +1410,7 @@
         <v>61.883829209443107</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1422,7 +1424,7 @@
         <v>63.975221128859218</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1436,7 +1438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1450,7 +1452,7 @@
         <v>88.372417964009898</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1464,7 +1466,7 @@
         <v>98.006201175383893</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>

--- a/results_svm_evaluation/svm_results_de_LDS_by_data_driven_pcc_10_15.xlsx
+++ b/results_svm_evaluation/svm_results_de_LDS_by_data_driven_pcc_10_15.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="600" firstSheet="3" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="3" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="selection_rate_0.1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,10 @@
     <sheet name="selection_rate_0.5" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="selection_rate_0.75" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="selection_rate_1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="selection_rate_0.2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="selection_rate_0.15" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="selection_rate_0.3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="selection_rate_0.4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -22,7 +26,7 @@
   <numFmts count="0"/>
   <fonts count="5">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -31,11 +35,12 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <family val="3"/>
       <sz val="9"/>
@@ -44,6 +49,7 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -120,7 +126,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -489,7 +495,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -786,7 +792,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1084,7 +1090,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1377,11 +1383,11 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1667,6 +1673,897 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Subject-Experiment</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>77.66079291343351</v>
+      </c>
+      <c r="C2" t="n">
+        <v>77.66079291343351</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.68410417847113</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>87.93034541821297</v>
+      </c>
+      <c r="C3" t="n">
+        <v>87.93034541821297</v>
+      </c>
+      <c r="D3" t="n">
+        <v>85.54328780271426</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>89.38053097345133</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89.38053097345133</v>
+      </c>
+      <c r="D4" t="n">
+        <v>88.20231342831907</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>80.82673725551258</v>
+      </c>
+      <c r="C5" t="n">
+        <v>80.82673725551258</v>
+      </c>
+      <c r="D5" t="n">
+        <v>77.91899890332503</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>72.38877498940302</v>
+      </c>
+      <c r="C6" t="n">
+        <v>72.38877498940302</v>
+      </c>
+      <c r="D6" t="n">
+        <v>65.11213503419346</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.41427694011195</v>
+      </c>
+      <c r="C7" t="n">
+        <v>90.41427694011195</v>
+      </c>
+      <c r="D7" t="n">
+        <v>89.96116752323836</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.58285971331932</v>
+      </c>
+      <c r="C8" t="n">
+        <v>88.58285971331932</v>
+      </c>
+      <c r="D8" t="n">
+        <v>86.99388999427292</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>85.24459554148392</v>
+      </c>
+      <c r="C9" t="n">
+        <v>85.24459554148392</v>
+      </c>
+      <c r="D9" t="n">
+        <v>84.85138063205841</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>85.78958295486984</v>
+      </c>
+      <c r="C10" t="n">
+        <v>85.78958295486984</v>
+      </c>
+      <c r="D10" t="n">
+        <v>83.36315488154817</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>72.63159715914499</v>
+      </c>
+      <c r="C11" t="n">
+        <v>72.63159715914499</v>
+      </c>
+      <c r="D11" t="n">
+        <v>70.4054688729742</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>66.32799591691969</v>
+      </c>
+      <c r="C12" t="n">
+        <v>66.32799591691969</v>
+      </c>
+      <c r="D12" t="n">
+        <v>60.04737763187275</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>67.55084386543137</v>
+      </c>
+      <c r="C13" t="n">
+        <v>67.55084386543137</v>
+      </c>
+      <c r="D13" t="n">
+        <v>64.10586069914186</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>80.6775145113712</v>
+      </c>
+      <c r="C14" t="n">
+        <v>80.6775145113712</v>
+      </c>
+      <c r="D14" t="n">
+        <v>77.90261676686241</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>99.44281524926687</v>
+      </c>
+      <c r="C15" t="n">
+        <v>99.44281524926687</v>
+      </c>
+      <c r="D15" t="n">
+        <v>99.44319125362964</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.10619469026548</v>
+      </c>
+      <c r="C16" t="n">
+        <v>96.10619469026548</v>
+      </c>
+      <c r="D16" t="n">
+        <v>95.37940976254355</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>82.73036387281321</v>
+      </c>
+      <c r="C17" t="n">
+        <v>82.73036387281321</v>
+      </c>
+      <c r="D17" t="n">
+        <v>80.26095715767768</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Subject-Experiment</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>71.00554503066635</v>
+      </c>
+      <c r="C2" t="n">
+        <v>71.00554503066635</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67.0878654003042</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>71.92121039109334</v>
+      </c>
+      <c r="C3" t="n">
+        <v>71.92121039109334</v>
+      </c>
+      <c r="D3" t="n">
+        <v>69.57384171040459</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>81.33279699651381</v>
+      </c>
+      <c r="C4" t="n">
+        <v>81.33279699651381</v>
+      </c>
+      <c r="D4" t="n">
+        <v>78.01616026061841</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>67.99505186031021</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67.99505186031021</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61.94526867722518</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>66.75559477158107</v>
+      </c>
+      <c r="C6" t="n">
+        <v>66.75559477158107</v>
+      </c>
+      <c r="D6" t="n">
+        <v>62.22239972754534</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>83.07779479061237</v>
+      </c>
+      <c r="C7" t="n">
+        <v>83.07779479061237</v>
+      </c>
+      <c r="D7" t="n">
+        <v>81.78235761697302</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>70.33728665472884</v>
+      </c>
+      <c r="C8" t="n">
+        <v>70.33728665472884</v>
+      </c>
+      <c r="D8" t="n">
+        <v>68.54664384424066</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>75.17660187371862</v>
+      </c>
+      <c r="C9" t="n">
+        <v>75.17660187371862</v>
+      </c>
+      <c r="D9" t="n">
+        <v>74.22929360931498</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>57.74591475704807</v>
+      </c>
+      <c r="C10" t="n">
+        <v>57.74591475704807</v>
+      </c>
+      <c r="D10" t="n">
+        <v>52.80463227074715</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>78.60439969203885</v>
+      </c>
+      <c r="C11" t="n">
+        <v>78.60439969203885</v>
+      </c>
+      <c r="D11" t="n">
+        <v>76.2260806790392</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>64.94320885128764</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64.94320885128764</v>
+      </c>
+      <c r="D12" t="n">
+        <v>63.49956604176786</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>72.37294440263324</v>
+      </c>
+      <c r="C13" t="n">
+        <v>72.37294440263324</v>
+      </c>
+      <c r="D13" t="n">
+        <v>71.35800829923269</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>90.93781088071695</v>
+      </c>
+      <c r="C14" t="n">
+        <v>90.93781088071695</v>
+      </c>
+      <c r="D14" t="n">
+        <v>90.93162537436888</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>90.21946556631113</v>
+      </c>
+      <c r="C15" t="n">
+        <v>90.21946556631113</v>
+      </c>
+      <c r="D15" t="n">
+        <v>89.13016273372094</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>76.16170843461737</v>
+      </c>
+      <c r="C17" t="n">
+        <v>76.16170843461737</v>
+      </c>
+      <c r="D17" t="n">
+        <v>73.82359374970019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Subject-Experiment</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>60.57223678405522</v>
+      </c>
+      <c r="C2" t="n">
+        <v>60.57223678405522</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.430364762544</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>73.63627713042499</v>
+      </c>
+      <c r="C3" t="n">
+        <v>73.63627713042499</v>
+      </c>
+      <c r="D3" t="n">
+        <v>71.56490094359995</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>77.59288575160683</v>
+      </c>
+      <c r="C4" t="n">
+        <v>77.59288575160683</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.05431542463792</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>66.3412313255305</v>
+      </c>
+      <c r="C5" t="n">
+        <v>66.3412313255305</v>
+      </c>
+      <c r="D5" t="n">
+        <v>62.20323162135814</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>64.00859869030009</v>
+      </c>
+      <c r="C6" t="n">
+        <v>64.00859869030009</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59.31637794882963</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>81.54560160555022</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81.54560160555022</v>
+      </c>
+      <c r="D7" t="n">
+        <v>78.30776702705988</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>71.26099706744868</v>
+      </c>
+      <c r="C8" t="n">
+        <v>71.26099706744868</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67.6228881443505</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>48.81037033192329</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48.81037033192329</v>
+      </c>
+      <c r="D9" t="n">
+        <v>45.47424808999492</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>38.2369224647272</v>
+      </c>
+      <c r="C10" t="n">
+        <v>38.2369224647272</v>
+      </c>
+      <c r="D10" t="n">
+        <v>34.64424761057236</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>79.48900942049671</v>
+      </c>
+      <c r="C11" t="n">
+        <v>79.48900942049671</v>
+      </c>
+      <c r="D11" t="n">
+        <v>77.3412870356639</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>59.19134248566164</v>
+      </c>
+      <c r="C12" t="n">
+        <v>59.19134248566164</v>
+      </c>
+      <c r="D12" t="n">
+        <v>55.72036398646806</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>63.27814254448568</v>
+      </c>
+      <c r="C13" t="n">
+        <v>63.27814254448568</v>
+      </c>
+      <c r="D13" t="n">
+        <v>59.93528807520213</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>89.76098409155789</v>
+      </c>
+      <c r="C14" t="n">
+        <v>89.76098409155789</v>
+      </c>
+      <c r="D14" t="n">
+        <v>89.72700800955512</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>90.60173530912898</v>
+      </c>
+      <c r="C15" t="n">
+        <v>90.60173530912898</v>
+      </c>
+      <c r="D15" t="n">
+        <v>89.52148044313094</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>70.95508900019318</v>
+      </c>
+      <c r="C17" t="n">
+        <v>70.95508900019318</v>
+      </c>
+      <c r="D17" t="n">
+        <v>68.12425127486451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1709,13 +2606,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.66079291343351</v>
+        <v>70.76964333601502</v>
       </c>
       <c r="C2" t="n">
-        <v>77.66079291343351</v>
+        <v>70.76964333601502</v>
       </c>
       <c r="D2" t="n">
-        <v>74.68410417847113</v>
+        <v>64.96711608341346</v>
       </c>
     </row>
     <row r="3">
@@ -1725,13 +2622,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.93034541821297</v>
+        <v>73.42234794418637</v>
       </c>
       <c r="C3" t="n">
-        <v>87.93034541821297</v>
+        <v>73.42234794418637</v>
       </c>
       <c r="D3" t="n">
-        <v>85.54328780271426</v>
+        <v>71.85791331972344</v>
       </c>
     </row>
     <row r="4">
@@ -1741,13 +2638,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.38053097345133</v>
+        <v>86.57817109144543</v>
       </c>
       <c r="C4" t="n">
-        <v>89.38053097345133</v>
+        <v>86.57817109144543</v>
       </c>
       <c r="D4" t="n">
-        <v>88.20231342831907</v>
+        <v>84.49663046839176</v>
       </c>
     </row>
     <row r="5">
@@ -1757,13 +2654,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.82673725551258</v>
+        <v>70.64524779626122</v>
       </c>
       <c r="C5" t="n">
-        <v>80.82673725551258</v>
+        <v>70.64524779626122</v>
       </c>
       <c r="D5" t="n">
-        <v>77.91899890332503</v>
+        <v>65.78059088964245</v>
       </c>
     </row>
     <row r="6">
@@ -1773,13 +2670,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.38877498940302</v>
+        <v>65.9022136869696</v>
       </c>
       <c r="C6" t="n">
-        <v>72.38877498940302</v>
+        <v>65.9022136869696</v>
       </c>
       <c r="D6" t="n">
-        <v>65.11213503419346</v>
+        <v>61.08325711409649</v>
       </c>
     </row>
     <row r="7">
@@ -1789,13 +2686,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.41427694011195</v>
+        <v>76.05316654988364</v>
       </c>
       <c r="C7" t="n">
-        <v>90.41427694011195</v>
+        <v>76.05316654988364</v>
       </c>
       <c r="D7" t="n">
-        <v>89.96116752323836</v>
+        <v>72.51739656916668</v>
       </c>
     </row>
     <row r="8">
@@ -1805,13 +2702,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.58285971331932</v>
+        <v>67.47662177008452</v>
       </c>
       <c r="C8" t="n">
-        <v>88.58285971331932</v>
+        <v>67.47662177008452</v>
       </c>
       <c r="D8" t="n">
-        <v>86.99388999427292</v>
+        <v>66.02244802413529</v>
       </c>
     </row>
     <row r="9">
@@ -1821,13 +2718,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85.24459554148392</v>
+        <v>75.32322943970104</v>
       </c>
       <c r="C9" t="n">
-        <v>85.24459554148392</v>
+        <v>75.32322943970104</v>
       </c>
       <c r="D9" t="n">
-        <v>84.85138063205841</v>
+        <v>74.39719693598724</v>
       </c>
     </row>
     <row r="10">
@@ -1837,13 +2734,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85.78958295486984</v>
+        <v>52.2847083452279</v>
       </c>
       <c r="C10" t="n">
-        <v>85.78958295486984</v>
+        <v>52.2847083452279</v>
       </c>
       <c r="D10" t="n">
-        <v>83.36315488154817</v>
+        <v>47.70794967193</v>
       </c>
     </row>
     <row r="11">
@@ -1853,13 +2750,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.63159715914499</v>
+        <v>88.12576233358421</v>
       </c>
       <c r="C11" t="n">
-        <v>72.63159715914499</v>
+        <v>88.12576233358421</v>
       </c>
       <c r="D11" t="n">
-        <v>70.4054688729742</v>
+        <v>85.8220287458926</v>
       </c>
     </row>
     <row r="12">
@@ -1869,13 +2766,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>66.32799591691969</v>
+        <v>68.28787446258185</v>
       </c>
       <c r="C12" t="n">
-        <v>66.32799591691969</v>
+        <v>68.28787446258185</v>
       </c>
       <c r="D12" t="n">
-        <v>60.04737763187275</v>
+        <v>62.91398088070675</v>
       </c>
     </row>
     <row r="13">
@@ -1885,13 +2782,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.55084386543137</v>
+        <v>69.26556458100848</v>
       </c>
       <c r="C13" t="n">
-        <v>67.55084386543137</v>
+        <v>69.26556458100848</v>
       </c>
       <c r="D13" t="n">
-        <v>64.10586069914186</v>
+        <v>67.74320825096198</v>
       </c>
     </row>
     <row r="14">
@@ -1901,13 +2798,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.6775145113712</v>
+        <v>92.64440003806263</v>
       </c>
       <c r="C14" t="n">
-        <v>80.6775145113712</v>
+        <v>92.64440003806263</v>
       </c>
       <c r="D14" t="n">
-        <v>77.90261676686241</v>
+        <v>92.83159923111148</v>
       </c>
     </row>
     <row r="15">
@@ -1917,13 +2814,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.44281524926687</v>
+        <v>93.57554996150486</v>
       </c>
       <c r="C15" t="n">
-        <v>99.44281524926687</v>
+        <v>93.57554996150486</v>
       </c>
       <c r="D15" t="n">
-        <v>99.44319125362964</v>
+        <v>92.8046696787726</v>
       </c>
     </row>
     <row r="16">
@@ -1933,13 +2830,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.10619469026548</v>
+        <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>96.10619469026548</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>95.37940976254355</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -1949,13 +2846,310 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.73036387281321</v>
+        <v>76.69030008910113</v>
       </c>
       <c r="C17" t="n">
-        <v>82.73036387281321</v>
+        <v>76.69030008910113</v>
       </c>
       <c r="D17" t="n">
-        <v>80.26095715767768</v>
+        <v>74.06306572426213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Subject-Experiment</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>67.89349388835544</v>
+      </c>
+      <c r="C2" t="n">
+        <v>67.89349388835544</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60.68094908388664</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>78.87144352459796</v>
+      </c>
+      <c r="C3" t="n">
+        <v>78.87144352459796</v>
+      </c>
+      <c r="D3" t="n">
+        <v>76.96122670060531</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>87.905604719764</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87.905604719764</v>
+      </c>
+      <c r="D4" t="n">
+        <v>85.90829086881153</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>69.16132492495611</v>
+      </c>
+      <c r="C5" t="n">
+        <v>69.16132492495611</v>
+      </c>
+      <c r="D5" t="n">
+        <v>65.34293384482734</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>65.5197709322745</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65.5197709322745</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59.64094136160408</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>77.29037448420834</v>
+      </c>
+      <c r="C7" t="n">
+        <v>77.29037448420834</v>
+      </c>
+      <c r="D7" t="n">
+        <v>74.26716635789592</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>76.95922975112242</v>
+      </c>
+      <c r="C8" t="n">
+        <v>76.95922975112242</v>
+      </c>
+      <c r="D8" t="n">
+        <v>74.11957818118739</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>77.0674486803519</v>
+      </c>
+      <c r="C9" t="n">
+        <v>77.0674486803519</v>
+      </c>
+      <c r="D9" t="n">
+        <v>76.1792121040118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>56.19763146740023</v>
+      </c>
+      <c r="C10" t="n">
+        <v>56.19763146740023</v>
+      </c>
+      <c r="D10" t="n">
+        <v>53.33824516405288</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>87.67930518430089</v>
+      </c>
+      <c r="C11" t="n">
+        <v>87.67930518430089</v>
+      </c>
+      <c r="D11" t="n">
+        <v>85.34022650600147</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>69.22265763544667</v>
+      </c>
+      <c r="C12" t="n">
+        <v>69.22265763544667</v>
+      </c>
+      <c r="D12" t="n">
+        <v>63.78295446060172</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>68.31970864799868</v>
+      </c>
+      <c r="C13" t="n">
+        <v>68.31970864799868</v>
+      </c>
+      <c r="D13" t="n">
+        <v>66.87640043893433</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>99.26686217008799</v>
+      </c>
+      <c r="C14" t="n">
+        <v>99.26686217008799</v>
+      </c>
+      <c r="D14" t="n">
+        <v>99.2618353988448</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>88.41823891210132</v>
+      </c>
+      <c r="C15" t="n">
+        <v>88.41823891210132</v>
+      </c>
+      <c r="D15" t="n">
+        <v>85.43102680790025</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.31268436578171</v>
+      </c>
+      <c r="C16" t="n">
+        <v>96.31268436578171</v>
+      </c>
+      <c r="D16" t="n">
+        <v>96.0241797910351</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>77.73905195258321</v>
+      </c>
+      <c r="C17" t="n">
+        <v>77.73905195258321</v>
+      </c>
+      <c r="D17" t="n">
+        <v>74.87701113801336</v>
       </c>
     </row>
   </sheetData>
